--- a/rslt1 - tratamento.xlsx
+++ b/rslt1 - tratamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engenharia R3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engenharia R3\Documents\GitHub\Tech_Dados_Projeto_Revelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B7C8E-5B66-45E5-835A-6FC1F8191EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8080A69-4612-4714-9183-C12DBD9D77A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62386A3B-19E6-40FE-A42D-38558DFE6BB4}"/>
+    <workbookView xWindow="28680" yWindow="-3390" windowWidth="29040" windowHeight="15720" xr2:uid="{62386A3B-19E6-40FE-A42D-38558DFE6BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="rslt1" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="517">
   <si>
     <t>Column1</t>
   </si>
@@ -1590,6 +1590,12 @@
   </si>
   <si>
     <t>inteligência artificial</t>
+  </si>
+  <si>
+    <t>rotinas de automação</t>
+  </si>
+  <si>
+    <t>metodologias ágeis</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1694,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{241B440D-3F45-4383-9132-46C2AFA0F03E}" name="rslt1" displayName="rslt1" ref="A1:H501" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H501" xr:uid="{241B440D-3F45-4383-9132-46C2AFA0F03E}"/>
+  <autoFilter ref="A1:H501" xr:uid="{241B440D-3F45-4383-9132-46C2AFA0F03E}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7E910552-6C02-4FC1-A8BA-4463DC0777A9}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{FE495E8E-16BB-4114-AC15-E48D606AD9A7}" uniqueName="2" name="Word" queryTableFieldId="2" dataDxfId="5"/>
@@ -2002,9 +2014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CED1347-34AF-4092-AE48-2ECA81B20AE9}">
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="B43:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,8 +2027,9 @@
     <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2045,7 +2058,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2065,7 +2078,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2088,7 +2101,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2111,7 +2124,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2134,7 +2147,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2180,7 +2193,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>negócio</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2255,7 +2268,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2278,7 +2291,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2298,7 +2311,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2315,7 +2328,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2358,7 +2371,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2384,7 +2397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2401,7 +2414,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2421,7 +2434,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2438,7 +2451,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2458,7 +2471,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2484,7 +2497,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2504,7 +2517,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2527,7 +2540,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2564,7 +2577,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2598,9 +2611,6 @@
         <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F27" s="1" t="s">
         <v>507</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2610,7 +2620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2650,7 +2660,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2699,7 +2709,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2719,7 +2729,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2736,7 +2746,7 @@
         <v>508</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>508</v>
@@ -2745,7 +2755,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2771,7 +2781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2791,7 +2801,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2814,7 +2824,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2857,7 +2867,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2920,7 +2930,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2953,9 +2963,6 @@
       <c r="C43">
         <v>29</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="E43" s="1" t="s">
         <v>507</v>
       </c>
@@ -2965,8 +2972,11 @@
       <c r="G43" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2986,7 +2996,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3006,7 +3016,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3029,7 +3039,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3049,7 +3059,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3069,7 +3079,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3132,7 +3142,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3178,7 +3188,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3215,9 +3225,6 @@
         <v>508</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F55" s="1" t="s">
         <v>507</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3227,7 +3234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3250,7 +3257,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3273,7 +3280,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3296,7 +3303,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3342,7 +3349,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3365,7 +3372,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3457,7 +3464,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3503,7 +3510,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3526,7 +3533,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3592,7 +3599,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3615,7 +3622,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3638,7 +3645,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3661,7 +3668,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3707,7 +3714,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3727,7 +3734,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3842,7 +3849,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3862,7 +3869,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3885,7 +3892,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3931,7 +3938,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3977,7 +3984,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4017,7 +4024,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4037,7 +4044,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4057,7 +4064,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4077,7 +4084,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4100,7 +4107,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4120,7 +4127,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4143,7 +4150,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4235,7 +4242,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4258,7 +4265,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4281,7 +4288,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4304,7 +4311,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4327,7 +4334,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4350,7 +4357,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4416,7 +4423,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4462,7 +4469,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4485,7 +4492,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4528,7 +4535,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4551,7 +4558,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4574,7 +4581,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4620,7 +4627,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4686,7 +4693,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4709,7 +4716,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4752,7 +4759,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -4798,7 +4805,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4821,7 +4828,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4844,7 +4851,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4867,7 +4874,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4890,7 +4897,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4913,7 +4920,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4936,7 +4943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4959,7 +4966,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4982,7 +4989,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5005,7 +5012,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5028,7 +5035,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5074,7 +5081,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5120,7 +5127,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5143,7 +5150,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5160,7 +5167,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5183,7 +5190,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5206,7 +5213,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5246,7 +5253,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5269,7 +5276,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -5292,7 +5299,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -5329,7 +5336,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5346,7 +5353,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5357,7 +5364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5368,7 +5375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5382,7 +5389,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5396,7 +5403,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5424,7 +5431,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5438,7 +5445,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5452,7 +5459,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5466,7 +5473,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5480,7 +5487,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5494,7 +5501,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5522,7 +5529,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5536,7 +5543,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5550,7 +5557,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5563,8 +5570,11 @@
       <c r="E166" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H166" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5578,7 +5588,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5592,7 +5602,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5606,7 +5616,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5620,7 +5630,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5644,11 +5654,11 @@
       <c r="C172">
         <v>14</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D172" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5662,7 +5672,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5676,7 +5686,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5690,7 +5700,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5704,7 +5714,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5718,7 +5728,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5732,7 +5742,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5742,7 +5752,7 @@
       <c r="C179">
         <v>13</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>507</v>
       </c>
     </row>
@@ -5760,7 +5770,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5774,7 +5784,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5788,7 +5798,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5816,7 +5826,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5830,7 +5840,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5844,7 +5854,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5861,7 +5871,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5875,7 +5885,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5889,7 +5899,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5917,7 +5927,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5945,7 +5955,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5976,7 +5986,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6000,14 +6010,14 @@
       <c r="C197">
         <v>12</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>507</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6021,7 +6031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6035,7 +6045,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6049,7 +6059,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6063,7 +6073,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6077,7 +6087,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6091,7 +6101,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6105,7 +6115,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6133,7 +6143,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6147,7 +6157,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6161,7 +6171,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6175,7 +6185,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6189,7 +6199,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6203,7 +6213,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6217,7 +6227,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6231,7 +6241,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6245,7 +6255,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6259,7 +6269,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6273,7 +6283,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6287,7 +6297,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6301,7 +6311,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6315,7 +6325,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6329,7 +6339,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6343,7 +6353,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6357,7 +6367,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6371,7 +6381,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6385,7 +6395,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6427,7 +6437,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6441,7 +6451,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6455,7 +6465,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6469,7 +6479,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6483,7 +6493,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6497,7 +6507,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6511,7 +6521,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6525,7 +6535,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6539,7 +6549,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6553,7 +6563,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6567,7 +6577,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6581,7 +6591,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6595,7 +6605,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6609,7 +6619,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6623,7 +6633,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6637,7 +6647,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6651,7 +6661,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6668,7 +6678,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6710,7 +6720,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6724,7 +6734,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6766,7 +6776,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -6780,7 +6790,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -6794,7 +6804,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6811,7 +6821,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6825,7 +6835,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6839,7 +6849,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -6867,7 +6877,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -6881,7 +6891,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -6895,7 +6905,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -6909,7 +6919,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -6923,7 +6933,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -6937,7 +6947,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -6951,7 +6961,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -6965,7 +6975,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -6993,7 +7003,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7007,7 +7017,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7049,7 +7059,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7063,7 +7073,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7080,7 +7090,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7094,7 +7104,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7108,7 +7118,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7122,7 +7132,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7136,7 +7146,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7150,7 +7160,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7164,7 +7174,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7178,7 +7188,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -7192,7 +7202,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -7206,7 +7216,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -7220,7 +7230,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -7234,7 +7244,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -7248,7 +7258,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -7262,7 +7272,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -7290,7 +7300,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -7318,7 +7328,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -7332,7 +7342,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -7346,7 +7356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -7360,7 +7370,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -7374,7 +7384,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -7388,7 +7398,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -7402,7 +7412,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -7416,7 +7426,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -7430,7 +7440,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -7444,7 +7454,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -7458,7 +7468,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -7472,7 +7482,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -7486,7 +7496,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -7515,7 +7525,7 @@
       </c>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -7545,7 +7555,7 @@
       </c>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -7560,7 +7570,7 @@
       </c>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -7575,7 +7585,7 @@
       </c>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -7590,7 +7600,7 @@
       </c>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -7620,7 +7630,7 @@
       </c>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -7635,7 +7645,7 @@
       </c>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -7665,7 +7675,7 @@
       </c>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -7680,7 +7690,7 @@
       </c>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -7695,7 +7705,7 @@
       </c>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -7710,7 +7720,7 @@
       </c>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -7723,12 +7733,9 @@
       <c r="D318" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E318" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -7743,7 +7750,7 @@
       </c>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -7758,7 +7765,7 @@
       </c>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -7773,7 +7780,7 @@
       </c>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -7788,7 +7795,7 @@
       </c>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -7818,7 +7825,7 @@
       </c>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -7833,7 +7840,7 @@
       </c>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -7863,7 +7870,7 @@
       </c>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -7878,7 +7885,7 @@
       </c>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -7893,7 +7900,7 @@
       </c>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -7908,7 +7915,7 @@
       </c>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -7923,7 +7930,7 @@
       </c>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -7938,7 +7945,7 @@
       </c>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -7953,7 +7960,7 @@
       </c>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -7968,7 +7975,7 @@
       </c>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -7983,7 +7990,7 @@
       </c>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -8000,7 +8007,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -8017,7 +8024,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -8032,7 +8039,7 @@
       </c>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -8062,7 +8069,7 @@
       </c>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -8077,7 +8084,7 @@
       </c>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -8092,7 +8099,7 @@
       </c>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -8107,7 +8114,7 @@
       </c>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -8122,7 +8129,7 @@
       </c>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -8137,7 +8144,7 @@
       </c>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -8152,7 +8159,7 @@
       </c>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -8167,7 +8174,7 @@
       </c>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -8182,7 +8189,7 @@
       </c>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -8197,7 +8204,7 @@
       </c>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -8212,7 +8219,7 @@
       </c>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -8242,7 +8249,7 @@
       </c>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -8259,7 +8266,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -8274,7 +8281,7 @@
       </c>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -8304,7 +8311,7 @@
       </c>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -8319,7 +8326,7 @@
       </c>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -8334,7 +8341,7 @@
       </c>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -8349,7 +8356,7 @@
       </c>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -8364,7 +8371,7 @@
       </c>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -8379,7 +8386,7 @@
       </c>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -8394,7 +8401,7 @@
       </c>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -8409,7 +8416,7 @@
       </c>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -8424,7 +8431,7 @@
       </c>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -8454,7 +8461,7 @@
       </c>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -8469,7 +8476,7 @@
       </c>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -8484,7 +8491,7 @@
       </c>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -8499,7 +8506,7 @@
       </c>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -8529,7 +8536,7 @@
       </c>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -8544,7 +8551,7 @@
       </c>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -8574,7 +8581,7 @@
       </c>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -8589,7 +8596,7 @@
       </c>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -8604,7 +8611,7 @@
       </c>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -8619,7 +8626,7 @@
       </c>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -8634,7 +8641,7 @@
       </c>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -8664,7 +8671,7 @@
       </c>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -8679,7 +8686,7 @@
       </c>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -8694,7 +8701,7 @@
       </c>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -8709,7 +8716,7 @@
       </c>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -8724,7 +8731,7 @@
       </c>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -8739,7 +8746,7 @@
       </c>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -8769,7 +8776,7 @@
       </c>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -8784,7 +8791,7 @@
       </c>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -8801,7 +8808,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -8816,7 +8823,7 @@
       </c>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -8831,7 +8838,7 @@
       </c>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -8846,7 +8853,7 @@
       </c>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -8861,7 +8868,7 @@
       </c>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -8876,7 +8883,7 @@
       </c>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -8891,7 +8898,7 @@
       </c>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -8906,7 +8913,7 @@
       </c>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -8921,7 +8928,7 @@
       </c>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -8936,7 +8943,7 @@
       </c>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -8966,7 +8973,7 @@
       </c>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -8981,7 +8988,7 @@
       </c>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -9011,7 +9018,7 @@
       </c>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -9026,7 +9033,7 @@
       </c>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -9041,7 +9048,7 @@
       </c>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -9056,7 +9063,7 @@
       </c>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -9071,7 +9078,7 @@
       </c>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -9086,7 +9093,7 @@
       </c>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -9104,7 +9111,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -9119,7 +9126,7 @@
       </c>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -9134,7 +9141,7 @@
       </c>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -9164,7 +9171,7 @@
       </c>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -9179,7 +9186,7 @@
       </c>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -9194,7 +9201,7 @@
       </c>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -9209,7 +9216,7 @@
       </c>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -9224,7 +9231,7 @@
       </c>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -9239,7 +9246,7 @@
       </c>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -9254,7 +9261,7 @@
       </c>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -9269,7 +9276,7 @@
       </c>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -9284,7 +9291,7 @@
       </c>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -9309,9 +9316,10 @@
       <c r="C423">
         <v>6</v>
       </c>
-      <c r="F423" s="2" t="s">
-        <v>507</v>
-      </c>
+      <c r="E423" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F423" s="2"/>
       <c r="H423" s="1" t="s">
         <v>514</v>
       </c>
@@ -9331,7 +9339,7 @@
       </c>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -9361,7 +9369,7 @@
       </c>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -9376,7 +9384,7 @@
       </c>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -9391,7 +9399,7 @@
       </c>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -9406,7 +9414,7 @@
       </c>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -9436,7 +9444,7 @@
       </c>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
@@ -9453,7 +9461,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -9468,7 +9476,7 @@
       </c>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -9483,7 +9491,7 @@
       </c>
       <c r="F434" s="2"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -9498,7 +9506,7 @@
       </c>
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -9513,7 +9521,7 @@
       </c>
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -9528,7 +9536,7 @@
       </c>
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -9543,7 +9551,7 @@
       </c>
       <c r="F438" s="2"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -9573,7 +9581,7 @@
       </c>
       <c r="F440" s="2"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -9588,7 +9596,7 @@
       </c>
       <c r="F441" s="2"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -9603,7 +9611,7 @@
       </c>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -9618,7 +9626,7 @@
       </c>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -9633,7 +9641,7 @@
       </c>
       <c r="F444" s="2"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -9648,7 +9656,7 @@
       </c>
       <c r="F445" s="2"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -9663,7 +9671,7 @@
       </c>
       <c r="F446" s="2"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -9693,7 +9701,7 @@
       </c>
       <c r="F448" s="2"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>447</v>
       </c>
@@ -9708,7 +9716,7 @@
       </c>
       <c r="F449" s="2"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>448</v>
       </c>
@@ -9723,7 +9731,7 @@
       </c>
       <c r="F450" s="2"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>449</v>
       </c>
@@ -9738,7 +9746,7 @@
       </c>
       <c r="F451" s="2"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>450</v>
       </c>
@@ -9753,7 +9761,7 @@
       </c>
       <c r="F452" s="2"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>451</v>
       </c>
@@ -9768,7 +9776,7 @@
       </c>
       <c r="F453" s="2"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
@@ -9783,7 +9791,7 @@
       </c>
       <c r="F454" s="2"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
@@ -9813,7 +9821,7 @@
       </c>
       <c r="F456" s="2"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -9828,7 +9836,7 @@
       </c>
       <c r="F457" s="2"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
@@ -9843,7 +9851,7 @@
       </c>
       <c r="F458" s="2"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>457</v>
       </c>
@@ -9873,7 +9881,7 @@
       </c>
       <c r="F460" s="2"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -9888,7 +9896,7 @@
       </c>
       <c r="F461" s="2"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -9905,7 +9913,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -9920,7 +9928,7 @@
       </c>
       <c r="F463" s="2"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -9935,7 +9943,7 @@
       </c>
       <c r="F464" s="2"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -9952,7 +9960,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -9967,7 +9975,7 @@
       </c>
       <c r="F466" s="2"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -9982,7 +9990,7 @@
       </c>
       <c r="F467" s="2"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -9997,7 +10005,7 @@
       </c>
       <c r="F468" s="2"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -10012,7 +10020,7 @@
       </c>
       <c r="F469" s="2"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -10027,7 +10035,7 @@
       </c>
       <c r="F470" s="2"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -10042,7 +10050,7 @@
       </c>
       <c r="F471" s="2"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -10057,7 +10065,7 @@
       </c>
       <c r="F472" s="2"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -10072,7 +10080,7 @@
       </c>
       <c r="F473" s="2"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -10087,7 +10095,7 @@
       </c>
       <c r="F474" s="2"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -10102,7 +10110,7 @@
       </c>
       <c r="F475" s="2"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -10117,7 +10125,7 @@
       </c>
       <c r="F476" s="2"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -10132,7 +10140,7 @@
       </c>
       <c r="F477" s="2"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -10147,7 +10155,7 @@
       </c>
       <c r="F478" s="2"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -10162,7 +10170,7 @@
       </c>
       <c r="F479" s="2"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -10177,7 +10185,7 @@
       </c>
       <c r="F480" s="2"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -10192,7 +10200,7 @@
       </c>
       <c r="F481" s="2"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -10207,7 +10215,7 @@
       </c>
       <c r="F482" s="2"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
@@ -10222,7 +10230,7 @@
       </c>
       <c r="F483" s="2"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
@@ -10237,7 +10245,7 @@
       </c>
       <c r="F484" s="2"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
@@ -10252,7 +10260,7 @@
       </c>
       <c r="F485" s="2"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
@@ -10267,7 +10275,7 @@
       </c>
       <c r="F486" s="2"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
@@ -10284,7 +10292,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
@@ -10301,7 +10309,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
@@ -10316,7 +10324,7 @@
       </c>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
@@ -10333,7 +10341,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
@@ -10348,7 +10356,7 @@
       </c>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
@@ -10363,7 +10371,7 @@
       </c>
       <c r="F492" s="2"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
@@ -10378,7 +10386,7 @@
       </c>
       <c r="F493" s="2"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
@@ -10393,7 +10401,7 @@
       </c>
       <c r="F494" s="2"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
@@ -10408,7 +10416,7 @@
       </c>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
@@ -10438,7 +10446,7 @@
       </c>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
@@ -10453,7 +10461,7 @@
       </c>
       <c r="F498" s="2"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
@@ -10468,7 +10476,7 @@
       </c>
       <c r="F499" s="2"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
